--- a/Задания, лаба 4, excel.xlsx
+++ b/Задания, лаба 4, excel.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="10.1" sheetId="1" r:id="rId1"/>
     <sheet name="10.2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -48,13 +48,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +91,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -151,14 +157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -168,11 +168,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -263,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -298,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -474,21 +479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="43.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,7 +519,7 @@
         <v>18958.125154304013</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -529,7 +534,7 @@
         <v>15857.174974464011</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -543,7 +548,7 @@
         <v>16585.935229946012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -558,7 +563,7 @@
         <v>17344.976000000013</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="E6" s="1">
         <v>0.11</v>
       </c>
@@ -572,21 +577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.44140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,16 +601,16 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -635,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -665,7 +670,7 @@
         <v>33086.14716115113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -694,7 +699,7 @@
         <v>36016.708488285112</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -724,7 +729,7 @@
         <v>39214.854027536043</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="E6" s="1">
         <v>0.11</v>
       </c>
@@ -756,14 +761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -778,7 +783,7 @@
     <col min="14" max="14" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,19 +797,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>FV(B1,B2,B3,1)</f>
         <v>168450.93454446137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -819,11 +824,11 @@
         <v>165425.11438572381</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>FV(B1,B2,B3,1)</f>
         <v>168450.93454446137</v>
       </c>
@@ -834,7 +839,7 @@
         <v>171536.17791119017</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="E5" s="1">
         <v>0.12</v>
       </c>
@@ -842,7 +847,7 @@
         <v>184492.9210736751</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="E6" s="1">
         <v>0.13</v>
       </c>
@@ -850,7 +855,7 @@
         <v>191356.28689116437</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="E7" s="1">
         <v>0.14000000000000001</v>
       </c>
@@ -858,7 +863,7 @@
         <v>198488.54977792382</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="E8" s="1">
         <v>0.15</v>
       </c>
@@ -866,52 +871,52 @@
         <v>205899.22723104348</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>6</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>7</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>8</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+    <row r="12" spans="1:11">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12">
@@ -947,8 +952,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:11">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
       <c r="B13">
@@ -984,8 +989,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+    <row r="14" spans="1:11">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
       <c r="B14">
@@ -1021,8 +1026,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="15" spans="1:11">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
       <c r="B15">
@@ -1058,8 +1063,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+    <row r="16" spans="1:11">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
       <c r="B16">
@@ -1095,8 +1100,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row r="17" spans="1:14">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
       <c r="B17">
@@ -1132,8 +1137,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+    <row r="18" spans="1:14">
+      <c r="A18" s="9">
         <v>8</v>
       </c>
       <c r="B18">
@@ -1169,8 +1174,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+    <row r="19" spans="1:14">
+      <c r="A19" s="21">
         <v>9</v>
       </c>
       <c r="B19">
@@ -1206,213 +1211,213 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="18">
         <v>0.1125</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="18">
         <v>0.1</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="19">
         <v>0.105</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="20">
         <v>0.12</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="18">
         <v>0.1275</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>48</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>48</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>48</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="10">
         <v>48</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <f>PV(B22/2,B23,0,B26,1)</f>
         <v>-8677.179710226279</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <f>PV(E22/2,E23,0,E26,1)</f>
         <v>-7691.3687189639686</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f>PV(H22/2,H23,0,H26,1)</f>
         <v>-7719.3635178160994</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <f>PV(K22/2,K23,0,K26,1)</f>
         <v>-6099.8403337233676</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="11">
         <f>PV(N22/2,N23,0,N26,1)</f>
         <v>-5663.6078718560902</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:14" ht="28.8">
+      <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <v>-45000</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <v>-45000</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="13">
         <v>-45000</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <v>-45000</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="13">
         <v>-45000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <v>120000</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <v>80000</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="13">
         <v>90000</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <v>100000</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="13">
         <v>110000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+    <row r="29" spans="1:14">
+      <c r="B29" s="17"/>
       <c r="C29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="20">
+    <row r="30" spans="1:14">
+      <c r="B30" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="B31" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="B32" s="1">
         <v>0.09</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="1">
         <v>0.13</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="1">
         <v>0.14000000000000001</v>
       </c>
